--- a/UnitTests/Tests/Credit.xlsx
+++ b/UnitTests/Tests/Credit.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="240" windowWidth="19485" windowHeight="12405"/>
+    <workbookView xWindow="75" yWindow="240" windowWidth="19485" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$27</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -201,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -263,12 +268,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -310,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,9 +351,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,6 +403,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,7 +595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N27"/>
   <sheetViews>
@@ -562,7 +604,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -615,24 +657,24 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E3" t="str">
-        <f>_xll.qlCreditDefaultSwap("cd01","buyer",100,0.5,0.5,G6,"following","actual/360",TRUE,TRUE)</f>
-        <v>cd01#0000</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlCreditDefaultSwap("cd01","buyer",100,0.5,0.5,G6,"following","actual/360",TRUE,TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="str">
-        <f>_xll.qlBond(,"abc","EUR",2,"target",100,L7,L3,I3)</f>
-        <v>obj_0001b#0000</v>
-      </c>
-      <c r="I3" t="str">
-        <f>_xll.qlLeg(,K4:K6,L4:L6)</f>
-        <v>obj_00010#0000</v>
-      </c>
-      <c r="L3" s="4">
-        <f>_xll.qlSettingsEvaluationDate()</f>
-        <v>42644</v>
+      <c r="G3" t="e">
+        <f ca="1">_xll.qlBond(,"abc","EUR",2,"target",100,L7,L3,I3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I3" t="e">
+        <f ca="1">_xll.qlLeg(,K4:K6,L4:L6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L3" s="4" t="e">
+        <f ca="1">_xll.qlSettingsEvaluationDate()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -646,16 +688,16 @@
         <f t="shared" ref="D4:D27" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E4" t="str">
-        <f>_xll.qlMidPointCdsEngine("cd02",E5,5,G4)</f>
-        <v>cd02#0000</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlMidPointCdsEngine("cd02",E5,5,G4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="str">
-        <f>_xll.qlFlatForward(,2,"target",5,"actual/360","continuous","annual")</f>
-        <v>obj_00002#0000</v>
+      <c r="G4" t="e">
+        <f ca="1">_xll.qlFlatForward(,2,"target",5,"actual/360","continuous","annual")</f>
+        <v>#NAME?</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -663,17 +705,17 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="4">
-        <f>L3+1</f>
-        <v>42645</v>
-      </c>
-      <c r="M4" t="str">
-        <f>_xll.qlSpreadCdsHelper(,K4,"1M",2,"target","annual","modified following","zero","actual/360",5,$G$4,TRUE,TRUE)</f>
-        <v>obj_00008#0000</v>
-      </c>
-      <c r="N4" t="str">
-        <f>_xll.qlDepositRateHelper(,K4,$G$5)</f>
-        <v>obj_00006#0000</v>
+      <c r="L4" s="4" t="e">
+        <f ca="1">L3+1</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M4" t="e">
+        <f ca="1">_xll.qlSpreadCdsHelper(,K4,"1M",2,"target","annual","modified following","zero","actual/360",5,$G$4,TRUE,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N4" t="e">
+        <f ca="1">_xll.qlDepositRateHelper(,K4,$G$5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -687,16 +729,16 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E5" t="str">
-        <f>_xll.qlHazardRateCurve("cd03",L4:L7,K4:K7,"actual/360")</f>
-        <v>cd03#0000</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlHazardRateCurve("cd03",L4:L7,K4:K7,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="str">
-        <f>_xll.qlEuribor(,"1Y",G4)</f>
-        <v>obj_00005#0000</v>
+      <c r="G5" t="e">
+        <f ca="1">_xll.qlEuribor(,"1Y",G4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -704,17 +746,17 @@
       <c r="K5">
         <v>2</v>
       </c>
-      <c r="L5" s="4">
-        <f t="shared" ref="L5:L7" si="1">L4+1</f>
-        <v>42646</v>
-      </c>
-      <c r="M5" t="str">
-        <f>_xll.qlSpreadCdsHelper(,K5,"1M",2,"target","annual","modified following","zero","actual/360",5,$G$4,TRUE,TRUE)</f>
-        <v>obj_00004#0000</v>
-      </c>
-      <c r="N5" t="str">
-        <f>_xll.qlDepositRateHelper(,K5,$G$5)</f>
-        <v>obj_0000c#0000</v>
+      <c r="L5" s="4" t="e">
+        <f t="shared" ref="L5:L7" ca="1" si="1">L4+1</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M5" t="e">
+        <f ca="1">_xll.qlSpreadCdsHelper(,K5,"1M",2,"target","annual","modified following","zero","actual/360",5,$G$4,TRUE,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" t="e">
+        <f ca="1">_xll.qlDepositRateHelper(,K5,$G$5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -728,16 +770,16 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E6" t="str">
-        <f>_xll.qlSpreadCdsHelper("cd04",5,"1Y",2,"target","annual","modified following","zero","actual/360",5,+G4,TRUE,TRUE)</f>
-        <v>cd04#0000</v>
+      <c r="E6" t="e">
+        <f ca="1">_xll.qlSpreadCdsHelper("cd04",5,"1Y",2,"target","annual","modified following","zero","actual/360",5,+G4,TRUE,TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="str">
-        <f>_xll.qlSchedule(,L3,L7,"1Y","target","unadjusted","unadjusted","backward",FALSE)</f>
-        <v>obj_00011#0000</v>
+      <c r="G6" t="e">
+        <f ca="1">_xll.qlSchedule(,L3,L7,"1Y","target","unadjusted","unadjusted","backward",FALSE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
@@ -745,17 +787,17 @@
       <c r="K6">
         <v>3</v>
       </c>
-      <c r="L6" s="4">
-        <f t="shared" si="1"/>
-        <v>42647</v>
-      </c>
-      <c r="M6" t="str">
-        <f>_xll.qlSpreadCdsHelper(,K6,"1M",2,"target","annual","modified following","zero","actual/360",5,$G$4,TRUE,TRUE)</f>
-        <v>obj_00009#0000</v>
-      </c>
-      <c r="N6" t="str">
-        <f>_xll.qlDepositRateHelper(,K6,$G$5)</f>
-        <v>obj_00015#0000</v>
+      <c r="L6" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M6" t="e">
+        <f ca="1">_xll.qlSpreadCdsHelper(,K6,"1M",2,"target","annual","modified following","zero","actual/360",5,$G$4,TRUE,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N6" t="e">
+        <f ca="1">_xll.qlDepositRateHelper(,K6,$G$5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -769,16 +811,16 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E7" t="str">
-        <f>_xll.qlUpfrontCdsHelper("cd05",5,5,"1Y",2,"target","annual","modified following","zero","actual/360",5,G4,2,TRUE,TRUE)</f>
-        <v>cd05#0000</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlUpfrontCdsHelper("cd05",5,5,"1Y",2,"target","annual","modified following","zero","actual/360",5,G4,2,TRUE,TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" t="str">
-        <f>_xll.qlBlackConstantVol(,L7,"target",5,"actual/360")</f>
-        <v>obj_0000e#0000</v>
+      <c r="G7" t="e">
+        <f ca="1">_xll.qlBlackConstantVol(,L7,"target",5,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
       <c r="J7" t="s">
         <v>44</v>
@@ -786,17 +828,17 @@
       <c r="K7">
         <v>4</v>
       </c>
-      <c r="L7" s="4">
-        <f t="shared" si="1"/>
-        <v>42648</v>
-      </c>
-      <c r="M7" t="str">
-        <f>_xll.qlSpreadCdsHelper(,K7,"1M",2,"target","annual","modified following","zero","actual/360",5,$G$4,TRUE,TRUE)</f>
-        <v>obj_00007#0000</v>
-      </c>
-      <c r="N7" t="str">
-        <f>_xll.qlDepositRateHelper(,K7,$G$5)</f>
-        <v>obj_0000d#0000</v>
+      <c r="L7" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M7" t="e">
+        <f ca="1">_xll.qlSpreadCdsHelper(,K7,"1M",2,"target","annual","modified following","zero","actual/360",5,$G$4,TRUE,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" t="e">
+        <f ca="1">_xll.qlDepositRateHelper(,K7,$G$5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -811,15 +853,15 @@
         <v>ERROR</v>
       </c>
       <c r="E8" t="e">
-        <f>_xll.qlCdsCouponLegNPV(E3)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlCdsCouponLegNPV(E3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="str">
-        <f>_xll.qlGeneralizedBlackScholesProcess(,G7,1,"actual/360",L7,1,1)</f>
-        <v>obj_00017#0000</v>
+      <c r="G8" t="e">
+        <f ca="1">_xll.qlGeneralizedBlackScholesProcess(,G7,1,"actual/360",L7,1,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -834,15 +876,15 @@
         <v>ERROR</v>
       </c>
       <c r="E9" t="e">
-        <f>_xll.qlCdsDefaultLegNPV(E3)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlCdsDefaultLegNPV(E3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="str">
-        <f>_xll.qlPricingEngine(,"AE",G8)</f>
-        <v>obj_00018#0000</v>
+      <c r="G9" t="e">
+        <f ca="1">_xll.qlPricingEngine(,"AE",G8)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -857,15 +899,15 @@
         <v>ERROR</v>
       </c>
       <c r="E10" t="e">
-        <f>_xll.qlCdsFairSpread(E3)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlCdsFairSpread(E3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="b">
-        <f>_xll.qlInstrumentSetPricingEngine(E3,G9)</f>
-        <v>1</v>
+      <c r="G10" t="e">
+        <f ca="1">_xll.qlInstrumentSetPricingEngine(E3,G9)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -880,15 +922,15 @@
         <v>ERROR</v>
       </c>
       <c r="E11" t="e">
-        <f>_xll.qlCdsFairUpfront(E3)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlCdsFairUpfront(E3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
       </c>
-      <c r="G11" t="str">
-        <f>_xll.qlInterpolation(,I11,K4:K5,K6:K7)</f>
-        <v>obj_00000#0000</v>
+      <c r="G11" t="e">
+        <f ca="1">_xll.qlInterpolation(,I11,K4:K5,K6:K7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
@@ -906,12 +948,12 @@
         <v>ERROR</v>
       </c>
       <c r="E12" t="e">
-        <f>_xll.qlPiecewiseHazardRateCurve("cd06",M4:M7,"actual/360","target",G11,0.000000000001)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F12" t="str">
+        <f ca="1">_xll.qlPiecewiseHazardRateCurve("cd06",M4:M7,"actual/360","target",G11,0.000000000001)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(E12)</f>
-        <v>qlPiecewiseHazardRateCurve - Unrecognised interpolator</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -926,8 +968,8 @@
         <v>ERROR</v>
       </c>
       <c r="E13" t="e">
-        <f>_xll.qlHRDates(E12)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlHRDates(E12)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -942,8 +984,8 @@
         <v>ERROR</v>
       </c>
       <c r="E14" t="e">
-        <f>_xll.qlHRates(E12)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlHRates(E12)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -957,9 +999,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E15" t="str">
-        <f>_xll.qlPiecewiseFlatForwardCurve("cd07",L3,N4:N7,"actual/360",0.000000000001)</f>
-        <v>cd07#0000</v>
+      <c r="E15" t="e">
+        <f ca="1">_xll.qlPiecewiseFlatForwardCurve("cd07",L3,N4:N7,"actual/360",0.000000000001)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -973,9 +1015,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E16" t="str">
-        <f>_xll.qlRiskyFixedBond("cd08","abc","eur",5,E5,+G6,5,"actual/360","modified following",100,+G4,+L7)</f>
-        <v>cd08#0000</v>
+      <c r="E16" t="e">
+        <f ca="1">_xll.qlRiskyFixedBond("cd08","abc","eur",5,E5,+G6,5,"actual/360","modified following",100,+G4,+L7)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,9 +1031,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E17" t="str">
-        <f>_xll.qlIssuer("cd09",E5,E18)</f>
-        <v>cd09#0000</v>
+      <c r="E17" t="e">
+        <f ca="1">_xll.qlIssuer("cd09",E5,E18)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1005,9 +1047,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E18" t="str">
-        <f>_xll.qlDefaultEvent("cd10",,,"Currency")</f>
-        <v>cd10#0000</v>
+      <c r="E18" t="e">
+        <f ca="1">_xll.qlDefaultEvent("cd10",,,"Currency")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1022,8 +1064,8 @@
         <v>ERROR</v>
       </c>
       <c r="E19" t="e">
-        <f>_xll.qlSyntheticCDO("cd11",,"buyer",G6,0.5,0.5,"actual/360","modified following")</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlSyntheticCDO("cd11",,"buyer",G6,0.5,0.5,"actual/360","modified following")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1037,9 +1079,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E20" t="str">
-        <f>_xll.qlMidPointCDOEngine("cd12",G4)</f>
-        <v>cd12#0000</v>
+      <c r="E20" t="e">
+        <f ca="1">_xll.qlMidPointCDOEngine("cd12",G4)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1054,8 +1096,8 @@
         <v>ERROR</v>
       </c>
       <c r="E21" t="e">
-        <f>_xll.qlNthToDefault("cd13")</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlNthToDefault("cd13")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,9 +1111,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E22" t="str">
-        <f>_xll.qlIntegralNtdEngine("cd14","1Y",G4)</f>
-        <v>cd14#0000</v>
+      <c r="E22" t="e">
+        <f ca="1">_xll.qlIntegralNtdEngine("cd14","1Y",G4)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,9 +1127,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E23" t="str">
-        <f>_xll.qlBlackCdsOptionEngine("cd15",E5,5,G4,5)</f>
-        <v>cd15#0000</v>
+      <c r="E23" t="e">
+        <f ca="1">_xll.qlBlackCdsOptionEngine("cd15",E5,5,G4,5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1102,12 +1144,12 @@
         <v>ERROR</v>
       </c>
       <c r="E24" t="e">
-        <f>_xll.qlCDSOption("cd16",E3,G24)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G24" t="str">
-        <f>_xll.qlAmericanExercise(,L4,L7)</f>
-        <v>obj_00013#0000</v>
+        <f ca="1">_xll.qlCDSOption("cd16",E3,G24)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G24" t="e">
+        <f ca="1">_xll.qlAmericanExercise(,L4,L7)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1122,8 +1164,8 @@
         <v>ERROR</v>
       </c>
       <c r="E25" t="e">
-        <f>_xll.qlCdsOptionImpliedVol()</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlCdsOptionImpliedVol()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1138,8 +1180,8 @@
         <v>ERROR</v>
       </c>
       <c r="E26" t="e">
-        <f>_xll.qlBaseCorrelationTermStructure("cd17",,2,"target","modified following",J4:J7,0.5,K4:K7,"actual/360")</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlBaseCorrelationTermStructure("cd17",,2,"target","modified following",J4:J7,0.5,K4:K7,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1154,8 +1196,8 @@
         <v>ERROR</v>
       </c>
       <c r="E27" t="e">
-        <f>_xll.qlBaseCorrelationValue()</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlBaseCorrelationValue()</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1165,26 +1207,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
